--- a/medicine/Médecine vétérinaire/Bernhard_Lauritz_Frederik_Bang/Bernhard_Lauritz_Frederik_Bang.xlsx
+++ b/medicine/Médecine vétérinaire/Bernhard_Lauritz_Frederik_Bang/Bernhard_Lauritz_Frederik_Bang.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bernhard Lauritz Frederik Bang est, né le 7 juin 1848 à Sorø et mort le 22 juin 1932 à Copenhague, un vétérinaire danois.
 </t>
@@ -511,11 +523,13 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils du professeur Jacob Henrik Bang et de Laura Louise Marie Joséphine Moth. En 1874, il épouse Anna Elisabeth Elise Klee, avec qui il eut trois enfants : Jacob Henrik Bang, qui deviendra médecin, Oluf Bang qui sera vétérinaire et Axel Frederik Bang qui deviendra ingénieur.
 En 1880, il obtient son doctorat et commence à enseigner à l'« Université royale vétérinaire et agricole » intégrée plus tard dans l’Université de Copenhague.
-En 1897, il isole la bactérie Brucella abortus bovis, responsable de la brucellose bovine et d’une forme de brucellose humaine, appelée fièvre ondulante de Bang ou maladie de Bang[1].
+En 1897, il isole la bactérie Brucella abortus bovis, responsable de la brucellose bovine et d’une forme de brucellose humaine, appelée fièvre ondulante de Bang ou maladie de Bang.
 En 1899, il devient membre de l'Académie royale des sciences et en 1921 il est nommé docteur honoraire de l'Université d'Utrecht pour sa contribution à la médecine vétérinaire.
 </t>
         </is>
@@ -545,7 +559,9 @@
           <t>Hommages posthumes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il était Chevalier de l'Ordre de Dannebrog et Croix d’honneur du même Ordre.
 Bang est connu pour ses travaux sur : 
